--- a/inst/extdata/threshold_dictionary.xlsx
+++ b/inst/extdata/threshold_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\WHO_AFRO\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42E3AA1-9CF5-4C05-A4D0-FB6D1657A9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="6795"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
   <si>
     <t xml:space="preserve">Desease </t>
   </si>
@@ -352,13 +353,85 @@
   </si>
   <si>
     <t>Alert_threshold</t>
+  </si>
+  <si>
+    <t>Adverse events following immunization (AEFI)</t>
+  </si>
+  <si>
+    <t>1 case</t>
+  </si>
+  <si>
+    <t>Treat the patient
+Communicate with the parents and community that AEFI can occur with any vaccine
+Respond to rumours or public enquiries
+Complete case reporting form (for notified cases)/Traiter le patient
+Informer les parents et la communauté que les MAPI peuvent survenir avec n'importe quel vaccin
+Répondre aux rumeurs ou aux demandes de renseignements du public
+Remplir le formulaire de déclaration de cas (pour les cas notifiés)</t>
+  </si>
+  <si>
+    <t>Animal Bites</t>
+  </si>
+  <si>
+    <t>Cat Bites</t>
+  </si>
+  <si>
+    <t>Donkey Bites</t>
+  </si>
+  <si>
+    <t>Horse Bites</t>
+  </si>
+  <si>
+    <t>Monkey Bites</t>
+  </si>
+  <si>
+    <t>Snake Bites</t>
+  </si>
+  <si>
+    <t>Bee Stings</t>
+  </si>
+  <si>
+    <t>Scorpion Stings</t>
+  </si>
+  <si>
+    <t>Noma</t>
+  </si>
+  <si>
+    <t>Treat the case with nationally recommended antibiotic, Conduct health promotion activities in the community, Increase vaccination coverage in the district, Improve sources of drinking water in at-risk communities, Train public health personnel on early recognition of oral lesions that can lead to Noma/Traiter le cas avec un antibiotique recommandé au niveau national, Mener des activités de promotion de la santé dans la communauté, Augmenter la couverture vaccinale dans le district, Améliorer les sources d'eau potable dans les communautés à risque, Former le personnel de santé publique sur la reconnaissance précoce des lésions buccales pouvant conduire au Noma</t>
+  </si>
+  <si>
+    <t>Typhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier, investiguer et notifier le plus tôt possible </t>
+  </si>
+  <si>
+    <t>Brucellosis</t>
+  </si>
+  <si>
+    <t>Visceral leishmaniasis</t>
+  </si>
+  <si>
+    <t>Seasonal flu</t>
+  </si>
+  <si>
+    <t>Nodding Syndrome</t>
+  </si>
+  <si>
+    <t>Trachoma</t>
+  </si>
+  <si>
+    <t>Rotavirus</t>
+  </si>
+  <si>
+    <t>Other deaths</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +443,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -412,11 +491,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,6 +518,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,11 +816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,18 +1589,310 @@
         <v>92</v>
       </c>
     </row>
+    <row r="50" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:E49"/>
-  <sortState ref="A2:D43">
+  <autoFilter ref="A1:E49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/inst/extdata/threshold_dictionary.xlsx
+++ b/inst/extdata/threshold_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42E3AA1-9CF5-4C05-A4D0-FB6D1657A9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B71B4CD-C587-46D7-A3BF-66C38FC8BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="131">
   <si>
     <t xml:space="preserve">Desease </t>
   </si>
@@ -425,6 +434,9 @@
   </si>
   <si>
     <t>Other deaths</t>
+  </si>
+  <si>
+    <t>Envenomation</t>
   </si>
 </sst>
 </file>
@@ -819,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,6 +1883,21 @@
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="s">
         <v>92</v>
       </c>
     </row>

--- a/inst/extdata/threshold_dictionary.xlsx
+++ b/inst/extdata/threshold_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B71B4CD-C587-46D7-A3BF-66C38FC8BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DF0585-8AC9-470D-A403-647212D7A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Feuil1 (2)" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +952,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
     <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:E49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E69" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="A2"/>
   </sortState>

--- a/inst/extdata/threshold_dictionary.xlsx
+++ b/inst/extdata/threshold_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moussanaf\OneDrive - World Health Organization\Documents\GitHub\epichecks\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DF0585-8AC9-470D-A403-647212D7A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751DCC4D-3446-4229-BBE1-8E947CA3BB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="132">
   <si>
     <t xml:space="preserve">Desease </t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Envenomation</t>
+  </si>
+  <si>
+    <t>Rabies Exposure</t>
   </si>
 </sst>
 </file>
@@ -831,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,6 +1901,21 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5" t="s">
         <v>92</v>
       </c>
     </row>
